--- a/SB.xlsx
+++ b/SB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>Title</t>
   </si>
@@ -191,15 +191,9 @@
     <t>Opening the Site URL with Google Chrome browser</t>
   </si>
   <si>
-    <t>Successful URL load under 4 seconds</t>
-  </si>
-  <si>
     <t>The site is successfully opened under 4 seconds</t>
   </si>
   <si>
-    <t>Succesfull reduction of the volume sound</t>
-  </si>
-  <si>
     <t>Precondition</t>
   </si>
   <si>
@@ -209,25 +203,52 @@
     <t>1. Open Chrome Browser                      2. Load https://www.slotsup.com/  3. Click "Enter"</t>
   </si>
   <si>
-    <t>Verifying that the sound reduction is possible from the game's interface</t>
-  </si>
-  <si>
-    <t>Verifying that the time for respond for our site to be loaded is less than 4 seconds</t>
-  </si>
-  <si>
-    <t>Site is opened and</t>
+    <t>"Wolf Run" game is opened and settings 
+button is visible</t>
+  </si>
+  <si>
+    <t>Verifying that the sound reduction is possible from the volume bar inside the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succesfull reduction of the sound volume </t>
+  </si>
+  <si>
+    <t>1. Click settings button
+2. Click the sound  button
+3. Reduce the sound volume by 
+dropping it down with the mouse arrow</t>
+  </si>
+  <si>
+    <t>User is redirected to the game 
+settings
+-A sound bar from where the sound volume can be manipulated appears
+- The sound volume is successfully reduced</t>
+  </si>
+  <si>
+    <t>Verifying that the time for our site to be loaded is less than 4 seconds</t>
+  </si>
+  <si>
+    <t>URL loads successfully for under 4 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -296,17 +317,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,7 +366,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -332,6 +378,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2643,7 +2699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2653,7 +2709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
@@ -2669,7 +2725,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,122 +2735,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2837,7 +2893,7 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2845,7 +2901,7 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2853,7 +2909,7 @@
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2861,7 +2917,7 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2880,7 +2936,7 @@
   <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,244 +2946,254 @@
     <col min="3" max="3" width="39.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1003</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>1004</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>1005</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1006</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1007</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1008</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1009</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>1010</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
